--- a/ExcelFiles/WolfSSL_Select.xlsx
+++ b/ExcelFiles/WolfSSL_Select.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyeedahmed/Desktop/Gitcode/LLMVerification/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD179A6-F7FC-124E-B5F8-A73EE25635AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CDDF4-3AF5-214A-97C3-48DCACDD01B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="500" windowWidth="13860" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wolfssl" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>Version</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>Syntax Error</t>
+  </si>
+  <si>
+    <t>Test Suite</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -289,7 +301,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -316,8 +328,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +355,14 @@
         <bgColor theme="7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -382,11 +407,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,6 +442,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,27 +663,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="4.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,8 +726,11 @@
       <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P1" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -731,8 +772,11 @@
         <v>17</v>
       </c>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P2" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -774,8 +818,11 @@
         <v>17</v>
       </c>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P3" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -817,8 +864,11 @@
         <v>17</v>
       </c>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P4" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -860,8 +910,11 @@
         <v>17</v>
       </c>
       <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P5" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -903,8 +956,11 @@
         <v>17</v>
       </c>
       <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P6" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -920,9 +976,7 @@
       <c r="E7" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="6">
         <v>1840</v>
       </c>
@@ -948,8 +1002,11 @@
         <v>17</v>
       </c>
       <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P7" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -986,15 +1043,18 @@
       <c r="L8" s="6">
         <v>8</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>16</v>
+      <c r="M8" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P8" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1036,8 +1096,11 @@
         <v>17</v>
       </c>
       <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P9" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1079,8 +1142,11 @@
         <v>17</v>
       </c>
       <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P10" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -1117,15 +1183,18 @@
       <c r="L11" s="6">
         <v>5</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>16</v>
+      <c r="M11" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P11" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1163,14 +1232,17 @@
         <v>3</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1214,8 +1286,11 @@
       <c r="O13" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P13" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1252,15 +1327,18 @@
       <c r="L14" s="6">
         <v>4</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>16</v>
+      <c r="M14" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P14" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1304,8 +1382,11 @@
         <v>17</v>
       </c>
       <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P15" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -1347,8 +1428,11 @@
         <v>17</v>
       </c>
       <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P16" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1385,15 +1469,18 @@
       <c r="L17" s="6">
         <v>5</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>16</v>
+      <c r="M17" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P17" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -1435,8 +1522,11 @@
         <v>17</v>
       </c>
       <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P18" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -1478,8 +1568,11 @@
         <v>17</v>
       </c>
       <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P19" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -1521,8 +1614,11 @@
         <v>17</v>
       </c>
       <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P20" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
@@ -1564,8 +1660,11 @@
         <v>17</v>
       </c>
       <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P21" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -1607,8 +1706,11 @@
         <v>17</v>
       </c>
       <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="P22" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
@@ -1624,9 +1726,7 @@
       <c r="E23" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="6">
         <v>15248</v>
       </c>
@@ -1652,9 +1752,13 @@
         <v>17</v>
       </c>
       <c r="O23" s="4"/>
+      <c r="P23" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>